--- a/be-patient.xlsx
+++ b/be-patient.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="454">
   <si>
     <t>Path</t>
   </si>
@@ -883,6 +883,10 @@
   </si>
   <si>
     <t>Patient.address.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:item.resolve()}
+</t>
   </si>
   <si>
     <t>valueCode</t>
@@ -3303,7 +3307,7 @@
         <v>39</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>126</v>
@@ -3897,7 +3901,7 @@
         <v>39</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>126</v>
@@ -4689,7 +4693,7 @@
         <v>39</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>126</v>
@@ -7081,7 +7085,7 @@
         <v>39</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>126</v>
@@ -8163,7 +8167,7 @@
         <v>39</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="AB66" s="2"/>
       <c r="AC66" t="s" s="2">
@@ -8193,7 +8197,7 @@
         <v>274</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>39</v>
@@ -8291,7 +8295,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8317,16 +8321,16 @@
         <v>65</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8339,7 +8343,7 @@
         <v>39</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>39</v>
@@ -8354,10 +8358,10 @@
         <v>164</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8375,7 +8379,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>37</v>
@@ -8392,7 +8396,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8418,13 +8422,13 @@
         <v>65</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8438,7 +8442,7 @@
         <v>39</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="T69" t="s" s="2">
         <v>39</v>
@@ -8453,10 +8457,10 @@
         <v>164</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -8474,7 +8478,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>37</v>
@@ -8491,7 +8495,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8517,16 +8521,16 @@
         <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>39</v>
@@ -8539,7 +8543,7 @@
         <v>39</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>39</v>
@@ -8575,7 +8579,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>37</v>
@@ -8592,7 +8596,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8618,13 +8622,13 @@
         <v>103</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -8638,7 +8642,7 @@
         <v>39</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>39</v>
@@ -8674,7 +8678,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>37</v>
@@ -8691,11 +8695,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -8717,13 +8721,13 @@
         <v>103</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -8737,7 +8741,7 @@
         <v>39</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>39</v>
@@ -8773,7 +8777,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>37</v>
@@ -8790,11 +8794,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -8816,13 +8820,13 @@
         <v>103</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8836,7 +8840,7 @@
         <v>39</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>39</v>
@@ -8872,7 +8876,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>37</v>
@@ -8889,11 +8893,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -8915,13 +8919,13 @@
         <v>103</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -8971,7 +8975,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>37</v>
@@ -8988,11 +8992,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9014,13 +9018,13 @@
         <v>103</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9034,7 +9038,7 @@
         <v>39</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>39</v>
@@ -9070,7 +9074,7 @@
         <v>39</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>37</v>
@@ -9087,7 +9091,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9113,13 +9117,13 @@
         <v>103</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -9169,7 +9173,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>37</v>
@@ -9186,7 +9190,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9212,16 +9216,16 @@
         <v>131</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>194</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>39</v>
@@ -9234,7 +9238,7 @@
         <v>39</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>39</v>
@@ -9270,7 +9274,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>37</v>
@@ -9287,7 +9291,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9313,16 +9317,16 @@
         <v>121</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
@@ -9350,10 +9354,10 @@
         <v>164</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>39</v>
@@ -9371,7 +9375,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>37</v>
@@ -9388,7 +9392,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9411,19 +9415,19 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
@@ -9472,7 +9476,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>37</v>
@@ -9489,7 +9493,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9512,19 +9516,19 @@
         <v>39</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>39</v>
@@ -9573,7 +9577,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>37</v>
@@ -9585,12 +9589,12 @@
         <v>51</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9613,19 +9617,19 @@
         <v>39</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
@@ -9674,7 +9678,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>37</v>
@@ -9686,12 +9690,12 @@
         <v>51</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9788,7 +9792,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9887,11 +9891,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -9913,10 +9917,10 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>92</v>
@@ -9971,7 +9975,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>37</v>
@@ -9988,7 +9992,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10014,16 +10018,16 @@
         <v>121</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>39</v>
@@ -10051,10 +10055,10 @@
         <v>173</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>39</v>
@@ -10072,7 +10076,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>37</v>
@@ -10089,7 +10093,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10115,16 +10119,16 @@
         <v>212</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>39</v>
@@ -10173,7 +10177,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>37</v>
@@ -10190,7 +10194,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10216,13 +10220,13 @@
         <v>218</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>222</v>
@@ -10274,7 +10278,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>37</v>
@@ -10291,7 +10295,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10317,16 +10321,16 @@
         <v>142</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>39</v>
@@ -10375,7 +10379,7 @@
         <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>37</v>
@@ -10392,7 +10396,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10421,13 +10425,13 @@
         <v>225</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>39</v>
@@ -10476,7 +10480,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>37</v>
@@ -10493,7 +10497,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10519,16 +10523,16 @@
         <v>198</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>39</v>
@@ -10577,7 +10581,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>37</v>
@@ -10586,7 +10590,7 @@
         <v>44</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>203</v>
@@ -10594,7 +10598,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10620,10 +10624,10 @@
         <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>194</v>
@@ -10676,7 +10680,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>37</v>
@@ -10693,7 +10697,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10716,19 +10720,19 @@
         <v>39</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>39</v>
@@ -10777,7 +10781,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>37</v>
@@ -10794,7 +10798,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10891,7 +10895,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -10990,11 +10994,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -11016,10 +11020,10 @@
         <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M95" t="s" s="2">
         <v>92</v>
@@ -11074,7 +11078,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>37</v>
@@ -11091,7 +11095,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11117,16 +11121,16 @@
         <v>121</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>39</v>
@@ -11175,7 +11179,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>44</v>
@@ -11192,7 +11196,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11218,16 +11222,16 @@
         <v>205</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -11276,7 +11280,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>37</v>
@@ -11293,11 +11297,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -11316,16 +11320,16 @@
         <v>39</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -11375,7 +11379,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>37</v>
@@ -11392,7 +11396,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11418,16 +11422,16 @@
         <v>198</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>39</v>
@@ -11476,7 +11480,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>37</v>
@@ -11493,7 +11497,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -11516,19 +11520,19 @@
         <v>45</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>39</v>
@@ -11577,7 +11581,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>37</v>
@@ -11594,7 +11598,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11691,7 +11695,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11790,11 +11794,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -11816,10 +11820,10 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>92</v>
@@ -11874,7 +11878,7 @@
         <v>39</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>37</v>
@@ -11891,7 +11895,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -11914,16 +11918,16 @@
         <v>45</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -11973,7 +11977,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>44</v>
@@ -11990,7 +11994,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12016,13 +12020,13 @@
         <v>65</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -12051,10 +12055,10 @@
         <v>164</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>39</v>
@@ -12072,7 +12076,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>44</v>
